--- a/Presentation.Web/Content/excel/OS2KITOS Excel Skabelon Brugere.xlsx
+++ b/Presentation.Web/Content/excel/OS2KITOS Excel Skabelon Brugere.xlsx
@@ -1,26 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Udvikler\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" tabRatio="991" firstSheet="5" activeTab="5"/>
   </bookViews>
   <sheets>
-    <sheet name="Organisation" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Organisationsrolle" sheetId="2" state="hidden" r:id="rId3"/>
-    <sheet name="Organisationsopgaver" sheetId="3" state="hidden" r:id="rId4"/>
-    <sheet name="Rolle" sheetId="4" state="hidden" r:id="rId5"/>
-    <sheet name="Opgave" sheetId="5" state="hidden" r:id="rId6"/>
-    <sheet name="Bruger" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="Organisation" sheetId="1" state="hidden" r:id="rId1"/>
+    <sheet name="Organisationsrolle" sheetId="2" state="hidden" r:id="rId2"/>
+    <sheet name="Organisationsopgaver" sheetId="3" state="hidden" r:id="rId3"/>
+    <sheet name="Rolle" sheetId="4" state="hidden" r:id="rId4"/>
+    <sheet name="Opgave" sheetId="5" state="hidden" r:id="rId5"/>
+    <sheet name="Bruger" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
   <si>
     <t>Id (skal ikke udfyldes)</t>
   </si>
@@ -73,12 +77,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
-    <numFmt numFmtId="165" formatCode="0"/>
-  </numFmts>
-  <fonts count="9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -86,29 +86,14 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -156,7 +141,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -164,97 +149,46 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="14">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -313,13 +247,29 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
@@ -335,11 +285,11 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image04.png" descr=""/>
+        <xdr:cNvPr id="2" name="image04.png"/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
@@ -361,7 +311,7 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
@@ -377,11 +327,11 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1" name="image01.png" descr=""/>
+        <xdr:cNvPr id="2" name="image01.png"/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
@@ -403,7 +353,7 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
@@ -419,11 +369,11 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="image02.png" descr=""/>
+        <xdr:cNvPr id="2" name="image02.png"/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
@@ -445,7 +395,7 @@
 </file>
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
@@ -461,11 +411,11 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="image00.png" descr=""/>
+        <xdr:cNvPr id="3" name="image00.png"/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
@@ -487,27 +437,27 @@
 </file>
 
 <file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>141840</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>16920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>530640</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>51480</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="image03.png" descr=""/>
+        <xdr:cNvPr id="4" name="image03.png"/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
@@ -528,29 +478,286 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
+  <a:themeElements>
+    <a:clrScheme name="Kontor">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Kontor">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Kontor">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:E65536"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E1048576"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C15" activeCellId="0" sqref="C15"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.5663265306122"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="48.5714285714286"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="39.0051020408163"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="36"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="9.14285714285714"/>
-    <col collapsed="false" hidden="false" max="10" min="6" style="0" width="8.70918367346939"/>
-    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="17.2857142857143"/>
+    <col min="1" max="1" width="16.5703125"/>
+    <col min="2" max="2" width="48.5703125" style="1"/>
+    <col min="3" max="3" width="39" style="1"/>
+    <col min="4" max="4" width="36" style="1"/>
+    <col min="6" max="10" width="8.7109375"/>
+    <col min="11" max="1025" width="17.28515625"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:5" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -565,41 +772,33 @@
       </c>
       <c r="E1" s="5"/>
     </row>
-    <row r="1048576" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <sheetProtection sheet="true" objects="true" scenarios="true"/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F1"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="40"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="49.4234693877551"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="33.8571428571429"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="17.2857142857143"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="21.2857142857143"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="17.2857142857143"/>
+    <col min="1" max="1" width="40"/>
+    <col min="2" max="2" width="49.42578125"/>
+    <col min="3" max="3" width="33.85546875"/>
+    <col min="4" max="5" width="17.28515625"/>
+    <col min="6" max="6" width="21.28515625"/>
+    <col min="7" max="1025" width="17.28515625"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>1</v>
       </c>
@@ -614,37 +813,27 @@
       <c r="F1" s="8"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="40"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="66.5663265306123"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="41.5663265306123"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="17.2857142857143"/>
+    <col min="1" max="1" width="40"/>
+    <col min="2" max="2" width="66.5703125"/>
+    <col min="3" max="3" width="41.5703125"/>
+    <col min="4" max="1025" width="17.28515625"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>1</v>
       </c>
@@ -657,37 +846,29 @@
       <c r="D1" s="9"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E1"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A40" activeCellId="0" sqref="A40"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="34.5765306122449"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="34"/>
-    <col collapsed="false" hidden="false" max="9" min="3" style="0" width="8.70918367346939"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="17.2857142857143"/>
+    <col min="1" max="1" width="34.5703125"/>
+    <col min="2" max="2" width="34"/>
+    <col min="3" max="9" width="8.7109375"/>
+    <col min="10" max="1025" width="17.28515625"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>4</v>
       </c>
@@ -699,39 +880,30 @@
       <c r="E1" s="11"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E1"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="67"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.8622448979592"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.4234693877551"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="93.2857142857143"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="9.14285714285714"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="17.2857142857143"/>
+    <col min="1" max="1" width="67"/>
+    <col min="2" max="2" width="12.85546875"/>
+    <col min="3" max="3" width="15.42578125"/>
+    <col min="4" max="4" width="93.28515625"/>
+    <col min="6" max="1025" width="17.28515625"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>9</v>
       </c>
@@ -747,73 +919,52 @@
       <c r="E1" s="13"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:F65536"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E1048576"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F15" activeCellId="0" sqref="F15"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="34.5765306122449"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="34"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="23.8571428571429"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="18.8520408163265"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="24.7142857142857"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="28.4183673469388"/>
-    <col collapsed="false" hidden="false" max="9" min="7" style="0" width="8.70918367346939"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="17.2857142857143"/>
+    <col min="1" max="1" width="22.85546875" customWidth="1"/>
+    <col min="2" max="2" width="23.85546875"/>
+    <col min="3" max="3" width="18.85546875"/>
+    <col min="4" max="4" width="24.7109375"/>
+    <col min="5" max="5" width="28.42578125"/>
+    <col min="6" max="8" width="8.7109375"/>
+    <col min="9" max="1024" width="17.28515625"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" s="10" t="s">
+    <row r="1" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="B1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="C1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="D1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="E1" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>